--- a/test_youtube/Krittika/01_jaysbabyfood.xlsx
+++ b/test_youtube/Krittika/01_jaysbabyfood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\Krittika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC37665-2DDF-4639-A7F2-839BB0EEC291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06534E2-A6C7-4CBA-B4D5-587B0DAB1FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="414">
   <si>
     <t>แหล่งที่มา</t>
   </si>
@@ -1214,6 +1214,63 @@
   <si>
     <t>label2</t>
   </si>
+  <si>
+    <t>2.5-2.51</t>
+  </si>
+  <si>
+    <t>3.17-3.18</t>
+  </si>
+  <si>
+    <t>3.27-3.28</t>
+  </si>
+  <si>
+    <t>4.0-4.01</t>
+  </si>
+  <si>
+    <t>4.24-4.25</t>
+  </si>
+  <si>
+    <t>5.1-5.11</t>
+  </si>
+  <si>
+    <t>5.16-5.17</t>
+  </si>
+  <si>
+    <t>5.35-5.36</t>
+  </si>
+  <si>
+    <t>5.41-5.42</t>
+  </si>
+  <si>
+    <t>6.35-6.36</t>
+  </si>
+  <si>
+    <t>7.4-7.41</t>
+  </si>
+  <si>
+    <t>7.53-7.54</t>
+  </si>
+  <si>
+    <t>10.24-10.25</t>
+  </si>
+  <si>
+    <t>10.44-10.45</t>
+  </si>
+  <si>
+    <t>10.49-10.50</t>
+  </si>
+  <si>
+    <t>10.56-10.57</t>
+  </si>
+  <si>
+    <t>12.35-12.36</t>
+  </si>
+  <si>
+    <t>13.17-13.18</t>
+  </si>
+  <si>
+    <t>13.18-13.19</t>
+  </si>
 </sst>
 </file>
 
@@ -1795,7 +1852,7 @@
   <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2080,8 +2137,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62">
-        <v>2.5</v>
+      <c r="A26" s="62" t="s">
+        <v>395</v>
       </c>
       <c r="B26" s="63" t="s">
         <v>6</v>
@@ -2135,8 +2192,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62">
-        <v>3.17</v>
+      <c r="A31" s="62" t="s">
+        <v>396</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>34</v>
@@ -2168,8 +2225,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62">
-        <v>3.27</v>
+      <c r="A34" s="62" t="s">
+        <v>397</v>
       </c>
       <c r="B34" s="63" t="s">
         <v>6</v>
@@ -2245,8 +2302,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62">
-        <v>4</v>
+      <c r="A41" s="62" t="s">
+        <v>398</v>
       </c>
       <c r="B41" s="63" t="s">
         <v>22</v>
@@ -2278,8 +2335,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62">
-        <v>4.24</v>
+      <c r="A44" s="62" t="s">
+        <v>399</v>
       </c>
       <c r="B44" s="63" t="s">
         <v>18</v>
@@ -2432,8 +2489,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62">
-        <v>5.0999999999999996</v>
+      <c r="A58" s="62" t="s">
+        <v>400</v>
       </c>
       <c r="B58" s="63" t="s">
         <v>6</v>
@@ -2454,8 +2511,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62">
-        <v>5.16</v>
+      <c r="A60" s="62" t="s">
+        <v>401</v>
       </c>
       <c r="B60" s="64" t="s">
         <v>34</v>
@@ -2509,8 +2566,8 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62">
-        <v>5.35</v>
+      <c r="A65" s="62" t="s">
+        <v>402</v>
       </c>
       <c r="B65" s="63" t="s">
         <v>18</v>
@@ -2542,8 +2599,8 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="62">
-        <v>5.41</v>
+      <c r="A68" s="62" t="s">
+        <v>403</v>
       </c>
       <c r="B68" s="63" t="s">
         <v>18</v>
@@ -2608,8 +2665,8 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="62">
-        <v>6.35</v>
+      <c r="A74" s="62" t="s">
+        <v>404</v>
       </c>
       <c r="B74" s="63" t="s">
         <v>22</v>
@@ -2696,8 +2753,8 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="62">
-        <v>7.4</v>
+      <c r="A82" s="62" t="s">
+        <v>405</v>
       </c>
       <c r="B82" s="63" t="s">
         <v>18</v>
@@ -2740,8 +2797,8 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="62">
-        <v>7.53</v>
+      <c r="A86" s="62" t="s">
+        <v>406</v>
       </c>
       <c r="B86" s="65" t="s">
         <v>9</v>
@@ -3114,8 +3171,8 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="62">
-        <v>10.24</v>
+      <c r="A120" s="62" t="s">
+        <v>407</v>
       </c>
       <c r="B120" s="65" t="s">
         <v>18</v>
@@ -3158,8 +3215,8 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="62">
-        <v>10.44</v>
+      <c r="A124" s="62" t="s">
+        <v>408</v>
       </c>
       <c r="B124" s="63" t="s">
         <v>22</v>
@@ -3180,8 +3237,8 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="62">
-        <v>10.49</v>
+      <c r="A126" s="62" t="s">
+        <v>409</v>
       </c>
       <c r="B126" s="63" t="s">
         <v>34</v>
@@ -3213,8 +3270,8 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="62">
-        <v>10.56</v>
+      <c r="A129" s="62" t="s">
+        <v>410</v>
       </c>
       <c r="B129" s="63" t="s">
         <v>18</v>
@@ -3356,8 +3413,8 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="62">
-        <v>12.35</v>
+      <c r="A142" s="62" t="s">
+        <v>411</v>
       </c>
       <c r="B142" s="68" t="s">
         <v>34</v>
@@ -3444,8 +3501,8 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="62">
-        <v>13.17</v>
+      <c r="A150" s="62" t="s">
+        <v>412</v>
       </c>
       <c r="B150" s="63" t="s">
         <v>22</v>
@@ -3455,8 +3512,8 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="62">
-        <v>13.18</v>
+      <c r="A151" s="62" t="s">
+        <v>413</v>
       </c>
       <c r="B151" s="63" t="s">
         <v>22</v>
